--- a/Testing/Test Plan.xlsx
+++ b/Testing/Test Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fined\Google Drive\School\Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fined\Google Drive\School\Capstone\CherokeeLanguageStudyTool\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0305406-7C0B-4E61-8B33-E84424FA5B1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDFDD5F-A1F8-4F0E-A9CC-657402002230}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22830" yWindow="2085" windowWidth="26205" windowHeight="15435" activeTab="1" xr2:uid="{1C392581-7671-438D-9252-DC5D3E4BE7A7}"/>
+    <workbookView xWindow="41172" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="8" xr2:uid="{1C392581-7671-438D-9252-DC5D3E4BE7A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Menu" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,10 @@
     <sheet name="Phonetic Assessment" sheetId="3" r:id="rId3"/>
     <sheet name="Syllabary Practice" sheetId="4" r:id="rId4"/>
     <sheet name="Syllabary Assessment" sheetId="5" r:id="rId5"/>
+    <sheet name="Records" sheetId="6" r:id="rId6"/>
+    <sheet name="Instructions" sheetId="7" r:id="rId7"/>
+    <sheet name="Settings" sheetId="8" r:id="rId8"/>
+    <sheet name="About" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="143">
   <si>
     <t>Task</t>
   </si>
@@ -76,9 +80,6 @@
     <t>Opens the Records form.</t>
   </si>
   <si>
-    <t>Selecting a word from the Phonetic word lisstBox</t>
-  </si>
-  <si>
     <t>The word is highlighted and the Cherokee audio file for the word plays.</t>
   </si>
   <si>
@@ -112,15 +113,9 @@
     <t>Clicking File &gt; Import List in the menu strip</t>
   </si>
   <si>
-    <t>Clicking File &gt; Recordsin the menu strip</t>
-  </si>
-  <si>
     <t>Clicking File &gt; Exit in the menu strip</t>
   </si>
   <si>
-    <t>Clicking File &gt; Instructions in the menu strip</t>
-  </si>
-  <si>
     <t>Selecting the newly imported word list</t>
   </si>
   <si>
@@ -196,9 +191,6 @@
     <t>The Instructions form is loaded.</t>
   </si>
   <si>
-    <t>Textboxes, End Round button, and timer enabled, Begin Round button and checkbox disabled,  Time Remaining label displayes remaining time. Labels become visible and display the words to be translated. If round is in progress button should not respond to a click.</t>
-  </si>
-  <si>
     <t>Begin Round button, and checkbox enabled, End Round button, textboxes, and timer disabled. Labels for the words to be translated become invisible. Time Remaining label displayes Time is Up. If round is not in progress button should not respond to a click.</t>
   </si>
   <si>
@@ -220,9 +212,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Working Initially?</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -230,6 +219,249 @@
   </si>
   <si>
     <t>Special characters cause issues with saving user records.</t>
+  </si>
+  <si>
+    <t>Clicking Help &gt; Instructions in the menu strip</t>
+  </si>
+  <si>
+    <t>Clicking File &gt; Records in the menu strip</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Textbox</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>Menustrip</t>
+  </si>
+  <si>
+    <t>Clicking Help &gt; Settings in the menu strip</t>
+  </si>
+  <si>
+    <t>Clicking Help &gt; About in the menu strip</t>
+  </si>
+  <si>
+    <t>Opens the Settings form.</t>
+  </si>
+  <si>
+    <t>Opens the About form.</t>
+  </si>
+  <si>
+    <t>Working Initially on Installable?</t>
+  </si>
+  <si>
+    <t>Working Initially on Standalone?</t>
+  </si>
+  <si>
+    <t>Control type</t>
+  </si>
+  <si>
+    <t>Yes with default settings</t>
+  </si>
+  <si>
+    <t>Added an auto-detect feature to check if the folders exist in the default location. If not, prompt the user to locate the folders and store the new location. Added a settings menu to modify or reset the custom location settings.</t>
+  </si>
+  <si>
+    <t>Listbox</t>
+  </si>
+  <si>
+    <t>Selecting a word from the Phonetic word listBox</t>
+  </si>
+  <si>
+    <t>Importing an improperly formatted word list</t>
+  </si>
+  <si>
+    <t>The word list is accepted and feedback is given on the formatting issue.</t>
+  </si>
+  <si>
+    <t>Missing words are listed as Not Provided. Feedback is given when trying to select a field holding malformed data.</t>
+  </si>
+  <si>
+    <t>Missing commas or words sometimes caused exceptions when parsing the file. If the list loaded, selecting a word after the improper formatting resulted in an exception.</t>
+  </si>
+  <si>
+    <t>On standalone version if the executable was moved from the folder with the Records and Resources folders it couldn't find them.</t>
+  </si>
+  <si>
+    <t>Yes with exception</t>
+  </si>
+  <si>
+    <t>If the audio file was not available nothing would play, and not feedback was given except to the console.</t>
+  </si>
+  <si>
+    <t>Added exception handling to display feedback using a label to indicate the audio is not available for the selected word.</t>
+  </si>
+  <si>
+    <t>Textboxes</t>
+  </si>
+  <si>
+    <t>Working initially on Installable?</t>
+  </si>
+  <si>
+    <t>English to Phonetic checkbox is checked</t>
+  </si>
+  <si>
+    <t>Checkbox</t>
+  </si>
+  <si>
+    <t>Begin Round button clicked (default Phonetic to English)</t>
+  </si>
+  <si>
+    <t>End Round button clicked (default Phonetic to English)</t>
+  </si>
+  <si>
+    <t>Begin Round button clicked (alternative English to Phonetic)</t>
+  </si>
+  <si>
+    <t>End Round button clicked (alternative English to Phonetic)</t>
+  </si>
+  <si>
+    <t>Label above textboxes change to displaay Enter Phonetic Translation. When a round begins English words will populate the word labels and the user will input the Phonetic translation.</t>
+  </si>
+  <si>
+    <t>Textboxes, End Round button, and timer enabled, Begin Round button and checkbox disabled,  Time Remaining label displayes remaining time. Labels become visible and display the English words to be translated. If round is in progress button should not respond to a click.</t>
+  </si>
+  <si>
+    <t>Eight textboxes display, one label with basic directions, and one Close button. The eight pictureboxes are not visible.</t>
+  </si>
+  <si>
+    <t>Enter Phonetic syllables in the textboxes</t>
+  </si>
+  <si>
+    <t>Enter other characters into the textboxes</t>
+  </si>
+  <si>
+    <t>Once matching syllable is entered the corrosponding Syllabary glyph is loaded to the above picturebox and the picturebox is set to visible.</t>
+  </si>
+  <si>
+    <t>Picturebox image is removed and the picturebox becomes invisible.</t>
+  </si>
+  <si>
+    <t>Closes the Syllabary Practice form and returns to the Main Menu form.</t>
+  </si>
+  <si>
+    <t>Expands the File menu strip to display the Return to Main Menu option.</t>
+  </si>
+  <si>
+    <t>Textboxes, Pictureboxes, End Round button, and timer enabled, Begin Round button disabled,  Time Remaining label displayes remaining time. Pictureboxes display the Syllabary glyph to be translated. If round is in progress button should not respond to a click.</t>
+  </si>
+  <si>
+    <t>Text entered into textboxes</t>
+  </si>
+  <si>
+    <t>If a matching Phonetic syllable is entered, the score increases by one, the picturebox loads a new image, the textbox is cleared.</t>
+  </si>
+  <si>
+    <t>Begin Round button enabled, End Round button, textboxes, pictureboxes, and timer disabled. Time Remaining label displayes Time is Up. The round performance is recorded if a name was entered on the Main Menu. If round is not in progress button should not respond to a click.</t>
+  </si>
+  <si>
+    <t>Textboxes, End Round button, and timer enabled, Begin Round button and checkbox disabled,  Time Remaining label displayes remaining time. Labels become visible and display the Phonetic words to be translated. Performance is recorded if a name was entered on the Main Menu. If round is in progress button should not respond to a click.</t>
+  </si>
+  <si>
+    <t>If a round is in progress the performance is saved to the user record (if a name was entered on the Main Menu), the Syllabary Assessment form is closed,  and returns to the Main Menu form.</t>
+  </si>
+  <si>
+    <t>Begin Round button enabled, End Round button disabled, pictureboxes disabled, textboxes disabled, Close button enabled, Time Remaining, Current Score, High Score, and direction label present.</t>
+  </si>
+  <si>
+    <t>Form loads with first and last name textBoxes, Load Record and Exit buttons, and a menustrip.</t>
+  </si>
+  <si>
+    <t>Accepts all characters. Only matching will retrieve records. Upper or lower case do not matter.</t>
+  </si>
+  <si>
+    <t>Load Record button clicked</t>
+  </si>
+  <si>
+    <t>Retrieve text from first and last name textboxes. Searches Records folder for matching record file. If a match exists the information is displayed on multiple labels. The labels are made visible. If a matching record file is not found only the first label is made visible to display a message stating the record does not exist.</t>
+  </si>
+  <si>
+    <t>The Records form is closed and returns to the Main Menu form.</t>
+  </si>
+  <si>
+    <t>Closes the Records form and returns to the Main Menu form.</t>
+  </si>
+  <si>
+    <t>Closed button clicked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File </t>
+  </si>
+  <si>
+    <t>Closes the Instructions form and returns to the Main Menu form.</t>
+  </si>
+  <si>
+    <t>Form loads with three labels, two readonly textboxes, and one close button.</t>
+  </si>
+  <si>
+    <t>The word list listbox displays and populates with available lists along with Import List and Remove List close buttons inside a groupbox. Three textboxes each with a lable and a browse button, and a Reset to Default button inside a groupbox with a warning label at the bottom. One close button.</t>
+  </si>
+  <si>
+    <t>Selecting a word from the listbox</t>
+  </si>
+  <si>
+    <t>Remove List button clicked</t>
+  </si>
+  <si>
+    <t>Import List button clicked</t>
+  </si>
+  <si>
+    <t>Resources Browse button clicked</t>
+  </si>
+  <si>
+    <t>Word Lists Browse button clicked</t>
+  </si>
+  <si>
+    <t>Records Browse button clicked</t>
+  </si>
+  <si>
+    <t>Reset to Default button clicked</t>
+  </si>
+  <si>
+    <t>Closes the Settings form and returns to the Main Menu form.</t>
+  </si>
+  <si>
+    <t>The file name is added to the Manage Word Lists listbox</t>
+  </si>
+  <si>
+    <t>The list highlighted in the listbox is deleted from the Resources/WordLists folder and removed from the listbox.</t>
+  </si>
+  <si>
+    <t>The FolderBrowseDialog window opens to allow the user to select the Resources folder location.</t>
+  </si>
+  <si>
+    <t>The FolderBrowseDialog window opens to allow the user to select the WordLists folder location.</t>
+  </si>
+  <si>
+    <t>The FolderBrowseDialog window opens to allow the user to select the Records folder location.</t>
+  </si>
+  <si>
+    <t>The Properties.Settings.Default entries  for each folder are reset to an empty string.</t>
+  </si>
+  <si>
+    <t>GitHub link label clicked</t>
+  </si>
+  <si>
+    <t>Cherokee Nation Language Program link label clicked</t>
+  </si>
+  <si>
+    <t>LinkLabel</t>
+  </si>
+  <si>
+    <t>A browser windows opens to the Cherokee Nation Language program site https://language.cherokee.org</t>
+  </si>
+  <si>
+    <t>A browser windows opens to this project GitHub site https://github.com/fined-nsu/CherokeeLanguageStudyTool</t>
+  </si>
+  <si>
+    <t>The About form is closed and the application returns to the Main Menu form.</t>
+  </si>
+  <si>
+    <t>The form loads with one read only textbox, six labels, two linklabels, and one button.</t>
   </si>
 </sst>
 </file>
@@ -584,202 +816,355 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00E22D3-3219-44F9-B164-078606E49284}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.85546875" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="40.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" t="s">
-        <v>65</v>
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" t="s">
-        <v>62</v>
+      <c r="D3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" t="s">
-        <v>62</v>
+      <c r="D4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
-        <v>62</v>
-      </c>
+      <c r="D14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="H16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -788,113 +1173,346 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFD59F2-CD4A-4263-87EF-57061A682B8C}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
+      <c r="D13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -903,95 +1521,259 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34EF0C79-979C-44B1-9657-30850D0404E5}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D19:D20"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.28515625" customWidth="1"/>
+    <col min="1" max="1" width="55.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.85546875" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1002,24 +1784,1150 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FC5118-3E4B-4C3D-A026-72A9F5B82441}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C8C740-FDBE-4599-B928-13ED1967E82C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.42578125" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6CE2C4-C56E-466B-AC04-E7C979FC5CD6}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F9:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="64.42578125" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" customWidth="1"/>
+    <col min="8" max="8" width="59.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10948EF6-B22F-4E18-9250-E264B580FBD0}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.28515625" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1080DA9-64E6-4308-A210-49EA8E26C16A}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.28515625" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789B48B5-A7F7-4150-9633-D1931311379B}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.85546875" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Testing/Test Plan.xlsx
+++ b/Testing/Test Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fined\Google Drive\School\Capstone\CherokeeLanguageStudyTool\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDFDD5F-A1F8-4F0E-A9CC-657402002230}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1679BF27-2733-4E7C-91A0-A8A08F2E6435}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41172" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="8" xr2:uid="{1C392581-7671-438D-9252-DC5D3E4BE7A7}"/>
+    <workbookView xWindow="41172" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="1" activeTab="2" xr2:uid="{1C392581-7671-438D-9252-DC5D3E4BE7A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Menu" sheetId="1" r:id="rId1"/>
@@ -506,7 +506,98 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="30">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -517,6 +608,159 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{99C83D3A-77FB-43A1-B018-67545DEF22CF}" name="Table1" displayName="Table1" ref="A1:H16" totalsRowShown="0" dataDxfId="24">
+  <autoFilter ref="A1:H16" xr:uid="{6AE1E8D1-CD45-4947-B94A-4E2AD3CE6525}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{D8A388C3-C877-4952-A1F7-46F9E5EA082B}" name="Task"/>
+    <tableColumn id="2" xr3:uid="{AE18E612-EA14-4B02-A775-9C263085B842}" name="Control type"/>
+    <tableColumn id="3" xr3:uid="{088FFB44-E63E-4AEE-AD1E-554D87C008F1}" name="Expectation" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{43D3140C-6096-46C7-AE33-51A9C059F3EA}" name="Working Initially on Installable?" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{BBA136CD-4D21-4944-8FC5-DB45287B0B26}" name="Working Initially on Standalone?" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{ED43473A-3B7B-4A47-A871-1549471D01BA}" name="Issue" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{A11B3361-0701-4BB9-8C0F-742D892061F6}" name="Working now?"/>
+    <tableColumn id="8" xr3:uid="{975C68A7-312C-419F-B597-E1BE3D93A92A}" name="Solution" dataDxfId="25"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3515ED47-3F4E-4C8F-9977-604523CC8817}" name="Table2" displayName="Table2" ref="A1:H13" totalsRowShown="0" dataDxfId="18">
+  <autoFilter ref="A1:H13" xr:uid="{45544F43-3305-42C2-B8A6-EE9756F40048}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{8F49D62D-E299-4799-8741-D3D0E467E298}" name="Task"/>
+    <tableColumn id="2" xr3:uid="{CB82EEB2-6795-4473-9DF2-8E6771815F0A}" name="Control type"/>
+    <tableColumn id="3" xr3:uid="{09BF5DA9-DC53-44BE-A95E-E5E8BC918932}" name="Expectation" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{1F8C2F94-E69D-44EE-A126-8C397CA9C686}" name="Working Initially on Installable?" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{FA5A0BB3-E881-4C81-9E45-92519E5A6138}" name="Working Initially on Standalone?" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{82C92FCE-CDA1-440C-A4D8-22534E1FF160}" name="Issue" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{8B807206-DF16-4735-99F8-0AE69D4E5228}" name="Working now?"/>
+    <tableColumn id="8" xr3:uid="{67963608-5158-49F7-9C56-7941FD9C6992}" name="Solution" dataDxfId="19"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{07218983-6A6C-4FD4-8F01-A7CF8F4E3424}" name="Table3" displayName="Table3" ref="A1:H13" totalsRowShown="0">
+  <autoFilter ref="A1:H13" xr:uid="{9626228F-2338-400A-8E0F-F336DA4E2858}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{05D49874-8A42-4A9B-B327-5F9E8CDA8E2F}" name="Task" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{1CD58447-6F40-433B-893A-798C7E631DE8}" name="Control type"/>
+    <tableColumn id="3" xr3:uid="{C2D20CF6-F128-4A7C-AEDC-C46279297CB6}" name="Expectation" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{E85D24E8-C387-4E8B-B4DC-294183B71347}" name="Working Initially on Installable?"/>
+    <tableColumn id="5" xr3:uid="{C4B84B19-449F-4288-811F-E5BFC43D17BC}" name="Working Initially on Standalone?"/>
+    <tableColumn id="6" xr3:uid="{3F317C8F-7E13-4CC8-AF2C-751AFE18C18E}" name="Issue"/>
+    <tableColumn id="7" xr3:uid="{52FD11AF-2D4C-4D01-AB35-BC53D4CABD00}" name="Working now?"/>
+    <tableColumn id="8" xr3:uid="{FE6C481A-CD41-4558-B710-84686D7BFBD4}" name="Solution"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6C6C4F5C-D5DF-46EB-AB4A-CCF7B443D011}" name="Table4" displayName="Table4" ref="A1:H7" totalsRowShown="0">
+  <autoFilter ref="A1:H7" xr:uid="{E24F069B-A25B-4D04-82C2-439832F8CBC6}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{29998848-7BCD-4499-B61B-378AF411B8A8}" name="Task" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{98885AF8-3E75-4BF8-80CD-D8CEBC202B1C}" name="Control type"/>
+    <tableColumn id="3" xr3:uid="{1270836A-FA95-4E6C-A9F9-83554939CCF4}" name="Expectation" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{D3D13A95-CE79-47BD-8F20-F41CB555C00D}" name="Working initially on Installable?"/>
+    <tableColumn id="5" xr3:uid="{0B34E98D-3854-40FA-B1B2-EBA96D1F5EAF}" name="Working Initially on Standalone?"/>
+    <tableColumn id="6" xr3:uid="{99E7FF66-CA45-4208-B53E-5F61248C7289}" name="Issue"/>
+    <tableColumn id="7" xr3:uid="{00A38E54-4FEF-4D7B-9A46-A74F778CF515}" name="Working now?"/>
+    <tableColumn id="8" xr3:uid="{0014E8CA-9192-43C7-B9BD-2CDC3F297E1F}" name="Solution"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8A4E3ECE-A2A6-4403-843E-F431F09F9EB4}" name="Table5" displayName="Table5" ref="A1:H10" totalsRowShown="0">
+  <autoFilter ref="A1:H10" xr:uid="{D4EDE50C-4B1F-431E-BAEA-02C9BE16D5B5}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{86B1B6B4-E6F8-4C3E-8ECF-1AA4DA9CD195}" name="Task" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{4AFDD15E-E863-4FFD-AD94-537766B1E317}" name="Control type"/>
+    <tableColumn id="3" xr3:uid="{C0B58DDD-27D3-432A-9F4A-9B764C1F1E89}" name="Expectation" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{1B901D77-5582-4D5F-9882-50D6D00B400E}" name="Working Initially on Installable?"/>
+    <tableColumn id="5" xr3:uid="{50532394-3441-4926-9502-615C39577634}" name="Working Initially on Standalone?"/>
+    <tableColumn id="6" xr3:uid="{13401DEC-EE3A-4D7D-B52F-032B1D5A40A0}" name="Issue"/>
+    <tableColumn id="7" xr3:uid="{77343F9D-21EE-4426-89D9-C3EC79B7B3CA}" name="Working now?"/>
+    <tableColumn id="8" xr3:uid="{7ABF2BC5-F738-4BA7-8182-92A0170A7A0A}" name="Solution"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{38B70F0E-3D8D-4C12-A3DE-241EE20053C3}" name="Table6" displayName="Table6" ref="A1:H8" totalsRowShown="0">
+  <autoFilter ref="A1:H8" xr:uid="{BAEAFF49-E84D-4400-BF4D-091E7C13CAEC}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{3865FE8D-DBCE-4905-A9FA-E93E6063CF5F}" name="Task" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{2ABE7530-231B-4354-9D23-53A2A7442853}" name="Control type"/>
+    <tableColumn id="3" xr3:uid="{5337CC4F-8D73-4D94-B85D-4568BEDC0DF6}" name="Expectation" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{0C1896A2-F3DB-4674-8EB7-54B1FE6B3C3D}" name="Working Initially on Installable?" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{63F348AC-7F90-4EAD-957D-ACC8028A5573}" name="Working Initially on Standalone?" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{8F09D566-1E08-4B0B-8CBF-FBD0A806A184}" name="Issue"/>
+    <tableColumn id="7" xr3:uid="{D8AAE8F2-0356-47E9-8DBF-497EEC54C7DA}" name="Working now?"/>
+    <tableColumn id="8" xr3:uid="{3CB713AF-1F83-4FA3-BD9B-923822E54F07}" name="Solution"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{85095D47-C8BD-4F91-A6DE-3C2AA465760C}" name="Table7" displayName="Table7" ref="A1:H5" totalsRowShown="0">
+  <autoFilter ref="A1:H5" xr:uid="{D7F91948-2EAA-43A7-BF15-BDC90B743FF0}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{75A90156-9335-41F9-A3A7-49836183A781}" name="Task" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{453ABDFA-C289-4955-A2C9-6DCBDAE0FA37}" name="Control type"/>
+    <tableColumn id="3" xr3:uid="{0EB173F7-1AD6-4381-AA64-DA20EA7ACDD2}" name="Expectation" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{B49DF1DB-9625-4B64-944F-B89C0AD8F3B9}" name="Working Initially on Installable?"/>
+    <tableColumn id="5" xr3:uid="{5A234A3A-9B0E-4A00-8637-8E56327BEC9B}" name="Working Initially on Standalone?"/>
+    <tableColumn id="6" xr3:uid="{722E6FD4-93EF-4022-8956-D2FF84D9AF4A}" name="Issue"/>
+    <tableColumn id="7" xr3:uid="{9608F234-F3D0-43B0-99A5-5012A81DB2C7}" name="Working now?"/>
+    <tableColumn id="8" xr3:uid="{5B5A780F-A074-4AF0-8980-88F7331D66E5}" name="Solution"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{7E1D93DC-2EAA-41A6-9F9C-D6A59F280EEF}" name="Table8" displayName="Table8" ref="A1:H13" totalsRowShown="0">
+  <autoFilter ref="A1:H13" xr:uid="{CE544966-9979-492E-BD92-2445BFEA035D}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{DFC3C427-D403-42E0-BADD-7DD37808B424}" name="Task" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{A0C2820C-6D88-488C-B844-5806524A7F05}" name="Control type"/>
+    <tableColumn id="3" xr3:uid="{B930C9F2-5B29-450B-89A0-3D623D8C2390}" name="Expectation" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{A2F18EFA-61D3-4E6D-B983-FBE4000F7D3A}" name="Working Initially on Installable?"/>
+    <tableColumn id="5" xr3:uid="{B58A5696-4A3C-45D9-B25C-8BF16859995A}" name="Working Initially on Standalone?"/>
+    <tableColumn id="6" xr3:uid="{3B7B5FA9-4AAD-4D8D-9F54-E39F5CE23B62}" name="Issue" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{2AF64310-00DC-49E7-BD11-222A10D8BE28}" name="Working now?"/>
+    <tableColumn id="8" xr3:uid="{74796A4F-C180-4D68-84C3-B9833289598B}" name="Solution" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{092F5E4A-3933-4244-8246-80BE7A78C778}" name="Table9" displayName="Table9" ref="A1:H7" totalsRowShown="0">
+  <autoFilter ref="A1:H7" xr:uid="{51C7C2A6-472C-4599-9A46-42176831756C}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{D8A00F48-445D-43E1-8F7D-E12BE2525788}" name="Task" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{9CA7F94E-3048-424C-A6B1-3C2648BAF154}" name="Control type"/>
+    <tableColumn id="3" xr3:uid="{11029337-B5D5-4D22-9AE5-47C278DC539D}" name="Expectation" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{DE193F2C-211C-46BA-9089-CA467E3F04F7}" name="Working Initially on Installable?"/>
+    <tableColumn id="5" xr3:uid="{A8708148-4F5E-4D96-B2CF-7DA65C559DE6}" name="Working Initially on Standalone?"/>
+    <tableColumn id="6" xr3:uid="{3264AD03-ED2E-4604-ADD1-79743BC1C7DA}" name="Issue"/>
+    <tableColumn id="7" xr3:uid="{EE484079-95AD-404B-8F65-3F14BDDE77A1}" name="Working now?"/>
+    <tableColumn id="8" xr3:uid="{3E90455D-41F1-4541-94BD-3C841E541085}" name="Solution"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -819,17 +1063,18 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="58.85546875" customWidth="1"/>
-    <col min="4" max="5" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
     <col min="6" max="6" width="40.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
     <col min="8" max="8" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1168,6 +1413,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1175,18 +1424,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFD59F2-CD4A-4263-87EF-57061A682B8C}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="58" customWidth="1"/>
-    <col min="4" max="5" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
     <col min="8" max="8" width="55.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1516,6 +1766,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1523,19 +1777,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34EF0C79-979C-44B1-9657-30850D0404E5}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.85546875" customWidth="1"/>
-    <col min="4" max="5" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="38.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="55.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1564,8 +1819,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
@@ -1590,8 +1845,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B3" t="s">
@@ -1607,8 +1862,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
@@ -1624,8 +1879,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B5" t="s">
@@ -1641,8 +1896,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B6" t="s">
@@ -1658,8 +1913,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B7" t="s">
@@ -1676,7 +1931,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B8" t="s">
@@ -1692,8 +1947,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B9" t="s">
@@ -1709,8 +1964,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B10" t="s">
@@ -1726,8 +1981,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B11" t="s">
@@ -1743,8 +1998,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B12" t="s">
@@ -1760,8 +2015,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B13" t="s">
@@ -1779,6 +2034,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1787,17 +2046,18 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="71.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1974,6 +2234,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1982,17 +2246,18 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection sqref="A1:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58.42578125" customWidth="1"/>
-    <col min="4" max="5" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
     <col min="6" max="6" width="42.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2198,6 +2463,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2206,16 +2475,18 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F9:F10"/>
+      <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="64.42578125" customWidth="1"/>
-    <col min="4" max="5" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="59.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2397,6 +2668,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2405,15 +2680,19 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="65.28515625" customWidth="1"/>
-    <col min="4" max="5" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2512,6 +2791,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2520,16 +2803,19 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57.28515625" customWidth="1"/>
-    <col min="4" max="5" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2777,6 +3063,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2784,19 +3074,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789B48B5-A7F7-4150-9633-D1931311379B}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58.85546875" customWidth="1"/>
-    <col min="4" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2929,5 +3220,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Testing/Test Plan.xlsx
+++ b/Testing/Test Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fined\Google Drive\School\Capstone\CherokeeLanguageStudyTool\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1679BF27-2733-4E7C-91A0-A8A08F2E6435}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05EA0FA-A314-4B5E-9EAD-557DD39177FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41172" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="1" activeTab="2" xr2:uid="{1C392581-7671-438D-9252-DC5D3E4BE7A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="8" xr2:uid="{1C392581-7671-438D-9252-DC5D3E4BE7A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Menu" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="152">
   <si>
     <t>Task</t>
   </si>
@@ -462,14 +462,49 @@
   </si>
   <si>
     <t>The form loads with one read only textbox, six labels, two linklabels, and one button.</t>
+  </si>
+  <si>
+    <t>Phonetic Assessment</t>
+  </si>
+  <si>
+    <t>Phonetic Practice</t>
+  </si>
+  <si>
+    <t>Main Menu</t>
+  </si>
+  <si>
+    <t>Syllabary Practice</t>
+  </si>
+  <si>
+    <t>Syllabary Assessment</t>
+  </si>
+  <si>
+    <t>Records</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>About</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -497,9 +532,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -611,34 +650,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{99C83D3A-77FB-43A1-B018-67545DEF22CF}" name="Table1" displayName="Table1" ref="A1:H16" totalsRowShown="0" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{99C83D3A-77FB-43A1-B018-67545DEF22CF}" name="Table1" displayName="Table1" ref="A1:H16" totalsRowShown="0" dataDxfId="29">
   <autoFilter ref="A1:H16" xr:uid="{6AE1E8D1-CD45-4947-B94A-4E2AD3CE6525}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{D8A388C3-C877-4952-A1F7-46F9E5EA082B}" name="Task"/>
     <tableColumn id="2" xr3:uid="{AE18E612-EA14-4B02-A775-9C263085B842}" name="Control type"/>
-    <tableColumn id="3" xr3:uid="{088FFB44-E63E-4AEE-AD1E-554D87C008F1}" name="Expectation" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{43D3140C-6096-46C7-AE33-51A9C059F3EA}" name="Working Initially on Installable?" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{BBA136CD-4D21-4944-8FC5-DB45287B0B26}" name="Working Initially on Standalone?" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{ED43473A-3B7B-4A47-A871-1549471D01BA}" name="Issue" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{088FFB44-E63E-4AEE-AD1E-554D87C008F1}" name="Expectation" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{43D3140C-6096-46C7-AE33-51A9C059F3EA}" name="Working Initially on Installable?" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{BBA136CD-4D21-4944-8FC5-DB45287B0B26}" name="Working Initially on Standalone?" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{ED43473A-3B7B-4A47-A871-1549471D01BA}" name="Issue" dataDxfId="25"/>
     <tableColumn id="7" xr3:uid="{A11B3361-0701-4BB9-8C0F-742D892061F6}" name="Working now?"/>
-    <tableColumn id="8" xr3:uid="{975C68A7-312C-419F-B597-E1BE3D93A92A}" name="Solution" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{975C68A7-312C-419F-B597-E1BE3D93A92A}" name="Solution" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3515ED47-3F4E-4C8F-9977-604523CC8817}" name="Table2" displayName="Table2" ref="A1:H13" totalsRowShown="0" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3515ED47-3F4E-4C8F-9977-604523CC8817}" name="Table2" displayName="Table2" ref="A1:H13" totalsRowShown="0" dataDxfId="23">
   <autoFilter ref="A1:H13" xr:uid="{45544F43-3305-42C2-B8A6-EE9756F40048}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{8F49D62D-E299-4799-8741-D3D0E467E298}" name="Task"/>
     <tableColumn id="2" xr3:uid="{CB82EEB2-6795-4473-9DF2-8E6771815F0A}" name="Control type"/>
-    <tableColumn id="3" xr3:uid="{09BF5DA9-DC53-44BE-A95E-E5E8BC918932}" name="Expectation" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{1F8C2F94-E69D-44EE-A126-8C397CA9C686}" name="Working Initially on Installable?" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{FA5A0BB3-E881-4C81-9E45-92519E5A6138}" name="Working Initially on Standalone?" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{82C92FCE-CDA1-440C-A4D8-22534E1FF160}" name="Issue" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{09BF5DA9-DC53-44BE-A95E-E5E8BC918932}" name="Expectation" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{1F8C2F94-E69D-44EE-A126-8C397CA9C686}" name="Working Initially on Installable?" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{FA5A0BB3-E881-4C81-9E45-92519E5A6138}" name="Working Initially on Standalone?" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{82C92FCE-CDA1-440C-A4D8-22534E1FF160}" name="Issue" dataDxfId="19"/>
     <tableColumn id="7" xr3:uid="{8B807206-DF16-4735-99F8-0AE69D4E5228}" name="Working now?"/>
-    <tableColumn id="8" xr3:uid="{67963608-5158-49F7-9C56-7941FD9C6992}" name="Solution" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{67963608-5158-49F7-9C56-7941FD9C6992}" name="Solution" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -648,9 +687,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{07218983-6A6C-4FD4-8F01-A7CF8F4E3424}" name="Table3" displayName="Table3" ref="A1:H13" totalsRowShown="0">
   <autoFilter ref="A1:H13" xr:uid="{9626228F-2338-400A-8E0F-F336DA4E2858}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{05D49874-8A42-4A9B-B327-5F9E8CDA8E2F}" name="Task" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{05D49874-8A42-4A9B-B327-5F9E8CDA8E2F}" name="Task" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{1CD58447-6F40-433B-893A-798C7E631DE8}" name="Control type"/>
-    <tableColumn id="3" xr3:uid="{C2D20CF6-F128-4A7C-AEDC-C46279297CB6}" name="Expectation" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{C2D20CF6-F128-4A7C-AEDC-C46279297CB6}" name="Expectation" dataDxfId="16"/>
     <tableColumn id="4" xr3:uid="{E85D24E8-C387-4E8B-B4DC-294183B71347}" name="Working Initially on Installable?"/>
     <tableColumn id="5" xr3:uid="{C4B84B19-449F-4288-811F-E5BFC43D17BC}" name="Working Initially on Standalone?"/>
     <tableColumn id="6" xr3:uid="{3F317C8F-7E13-4CC8-AF2C-751AFE18C18E}" name="Issue"/>
@@ -665,9 +704,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6C6C4F5C-D5DF-46EB-AB4A-CCF7B443D011}" name="Table4" displayName="Table4" ref="A1:H7" totalsRowShown="0">
   <autoFilter ref="A1:H7" xr:uid="{E24F069B-A25B-4D04-82C2-439832F8CBC6}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{29998848-7BCD-4499-B61B-378AF411B8A8}" name="Task" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{29998848-7BCD-4499-B61B-378AF411B8A8}" name="Task" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{98885AF8-3E75-4BF8-80CD-D8CEBC202B1C}" name="Control type"/>
-    <tableColumn id="3" xr3:uid="{1270836A-FA95-4E6C-A9F9-83554939CCF4}" name="Expectation" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{1270836A-FA95-4E6C-A9F9-83554939CCF4}" name="Expectation" dataDxfId="14"/>
     <tableColumn id="4" xr3:uid="{D3D13A95-CE79-47BD-8F20-F41CB555C00D}" name="Working initially on Installable?"/>
     <tableColumn id="5" xr3:uid="{0B34E98D-3854-40FA-B1B2-EBA96D1F5EAF}" name="Working Initially on Standalone?"/>
     <tableColumn id="6" xr3:uid="{99E7FF66-CA45-4208-B53E-5F61248C7289}" name="Issue"/>
@@ -682,9 +721,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8A4E3ECE-A2A6-4403-843E-F431F09F9EB4}" name="Table5" displayName="Table5" ref="A1:H10" totalsRowShown="0">
   <autoFilter ref="A1:H10" xr:uid="{D4EDE50C-4B1F-431E-BAEA-02C9BE16D5B5}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{86B1B6B4-E6F8-4C3E-8ECF-1AA4DA9CD195}" name="Task" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{86B1B6B4-E6F8-4C3E-8ECF-1AA4DA9CD195}" name="Task" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{4AFDD15E-E863-4FFD-AD94-537766B1E317}" name="Control type"/>
-    <tableColumn id="3" xr3:uid="{C0B58DDD-27D3-432A-9F4A-9B764C1F1E89}" name="Expectation" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{C0B58DDD-27D3-432A-9F4A-9B764C1F1E89}" name="Expectation" dataDxfId="12"/>
     <tableColumn id="4" xr3:uid="{1B901D77-5582-4D5F-9882-50D6D00B400E}" name="Working Initially on Installable?"/>
     <tableColumn id="5" xr3:uid="{50532394-3441-4926-9502-615C39577634}" name="Working Initially on Standalone?"/>
     <tableColumn id="6" xr3:uid="{13401DEC-EE3A-4D7D-B52F-032B1D5A40A0}" name="Issue"/>
@@ -699,11 +738,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{38B70F0E-3D8D-4C12-A3DE-241EE20053C3}" name="Table6" displayName="Table6" ref="A1:H8" totalsRowShown="0">
   <autoFilter ref="A1:H8" xr:uid="{BAEAFF49-E84D-4400-BF4D-091E7C13CAEC}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{3865FE8D-DBCE-4905-A9FA-E93E6063CF5F}" name="Task" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{3865FE8D-DBCE-4905-A9FA-E93E6063CF5F}" name="Task" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{2ABE7530-231B-4354-9D23-53A2A7442853}" name="Control type"/>
-    <tableColumn id="3" xr3:uid="{5337CC4F-8D73-4D94-B85D-4568BEDC0DF6}" name="Expectation" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{0C1896A2-F3DB-4674-8EB7-54B1FE6B3C3D}" name="Working Initially on Installable?" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{63F348AC-7F90-4EAD-957D-ACC8028A5573}" name="Working Initially on Standalone?" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{5337CC4F-8D73-4D94-B85D-4568BEDC0DF6}" name="Expectation" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{0C1896A2-F3DB-4674-8EB7-54B1FE6B3C3D}" name="Working Initially on Installable?" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{63F348AC-7F90-4EAD-957D-ACC8028A5573}" name="Working Initially on Standalone?" dataDxfId="8"/>
     <tableColumn id="6" xr3:uid="{8F09D566-1E08-4B0B-8CBF-FBD0A806A184}" name="Issue"/>
     <tableColumn id="7" xr3:uid="{D8AAE8F2-0356-47E9-8DBF-497EEC54C7DA}" name="Working now?"/>
     <tableColumn id="8" xr3:uid="{3CB713AF-1F83-4FA3-BD9B-923822E54F07}" name="Solution"/>
@@ -716,9 +755,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{85095D47-C8BD-4F91-A6DE-3C2AA465760C}" name="Table7" displayName="Table7" ref="A1:H5" totalsRowShown="0">
   <autoFilter ref="A1:H5" xr:uid="{D7F91948-2EAA-43A7-BF15-BDC90B743FF0}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{75A90156-9335-41F9-A3A7-49836183A781}" name="Task" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{75A90156-9335-41F9-A3A7-49836183A781}" name="Task" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{453ABDFA-C289-4955-A2C9-6DCBDAE0FA37}" name="Control type"/>
-    <tableColumn id="3" xr3:uid="{0EB173F7-1AD6-4381-AA64-DA20EA7ACDD2}" name="Expectation" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{0EB173F7-1AD6-4381-AA64-DA20EA7ACDD2}" name="Expectation" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{B49DF1DB-9625-4B64-944F-B89C0AD8F3B9}" name="Working Initially on Installable?"/>
     <tableColumn id="5" xr3:uid="{5A234A3A-9B0E-4A00-8637-8E56327BEC9B}" name="Working Initially on Standalone?"/>
     <tableColumn id="6" xr3:uid="{722E6FD4-93EF-4022-8956-D2FF84D9AF4A}" name="Issue"/>
@@ -733,14 +772,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{7E1D93DC-2EAA-41A6-9F9C-D6A59F280EEF}" name="Table8" displayName="Table8" ref="A1:H13" totalsRowShown="0">
   <autoFilter ref="A1:H13" xr:uid="{CE544966-9979-492E-BD92-2445BFEA035D}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{DFC3C427-D403-42E0-BADD-7DD37808B424}" name="Task" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{DFC3C427-D403-42E0-BADD-7DD37808B424}" name="Task" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{A0C2820C-6D88-488C-B844-5806524A7F05}" name="Control type"/>
-    <tableColumn id="3" xr3:uid="{B930C9F2-5B29-450B-89A0-3D623D8C2390}" name="Expectation" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B930C9F2-5B29-450B-89A0-3D623D8C2390}" name="Expectation" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{A2F18EFA-61D3-4E6D-B983-FBE4000F7D3A}" name="Working Initially on Installable?"/>
     <tableColumn id="5" xr3:uid="{B58A5696-4A3C-45D9-B25C-8BF16859995A}" name="Working Initially on Standalone?"/>
-    <tableColumn id="6" xr3:uid="{3B7B5FA9-4AAD-4D8D-9F54-E39F5CE23B62}" name="Issue" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{3B7B5FA9-4AAD-4D8D-9F54-E39F5CE23B62}" name="Issue" dataDxfId="3"/>
     <tableColumn id="7" xr3:uid="{2AF64310-00DC-49E7-BD11-222A10D8BE28}" name="Working now?"/>
-    <tableColumn id="8" xr3:uid="{74796A4F-C180-4D68-84C3-B9833289598B}" name="Solution" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{74796A4F-C180-4D68-84C3-B9833289598B}" name="Solution" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -750,9 +789,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{092F5E4A-3933-4244-8246-80BE7A78C778}" name="Table9" displayName="Table9" ref="A1:H7" totalsRowShown="0">
   <autoFilter ref="A1:H7" xr:uid="{51C7C2A6-472C-4599-9A46-42176831756C}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{D8A00F48-445D-43E1-8F7D-E12BE2525788}" name="Task" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{D8A00F48-445D-43E1-8F7D-E12BE2525788}" name="Task" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{9CA7F94E-3048-424C-A6B1-3C2648BAF154}" name="Control type"/>
-    <tableColumn id="3" xr3:uid="{11029337-B5D5-4D22-9AE5-47C278DC539D}" name="Expectation" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{11029337-B5D5-4D22-9AE5-47C278DC539D}" name="Expectation" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{DE193F2C-211C-46BA-9089-CA467E3F04F7}" name="Working Initially on Installable?"/>
     <tableColumn id="5" xr3:uid="{A8708148-4F5E-4D96-B2CF-7DA65C559DE6}" name="Working Initially on Standalone?"/>
     <tableColumn id="6" xr3:uid="{3264AD03-ED2E-4604-ADD1-79743BC1C7DA}" name="Issue"/>
@@ -1060,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00E22D3-3219-44F9-B164-078606E49284}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H16"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1411,6 +1450,11 @@
       <c r="F16" s="1"/>
       <c r="H16" s="1"/>
     </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -1425,7 +1469,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1750,6 +1794,9 @@
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
@@ -1775,10 +1822,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34EF0C79-979C-44B1-9657-30850D0404E5}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2032,6 +2079,11 @@
         <v>58</v>
       </c>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -2046,7 +2098,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2197,7 +2249,9 @@
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2246,7 +2300,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2456,7 +2510,9 @@
       <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="3" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -2475,7 +2531,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2655,7 +2711,9 @@
       <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="3" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -2677,10 +2735,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10948EF6-B22F-4E18-9250-E264B580FBD0}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2789,6 +2847,11 @@
         <v>58</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -2800,10 +2863,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1080DA9-64E6-4308-A210-49EA8E26C16A}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3061,6 +3124,11 @@
         <v>58</v>
       </c>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3072,10 +3140,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789B48B5-A7F7-4150-9633-D1931311379B}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3218,6 +3286,11 @@
         <v>58</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
